--- a/_other/WeekPlan.xlsx
+++ b/_other/WeekPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\exchange\RichLaughter2\_other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF599B7-DCCF-433A-8286-E7673CB39D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1305AED4-6B81-4995-85AA-EAAEEF748E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="346">
   <si>
     <t>Новый тест с использованием БД</t>
   </si>
@@ -1061,10 +1061,19 @@
     <t>Тест через оконные функции (rolling)</t>
   </si>
   <si>
-    <t>Создать api quik</t>
-  </si>
-  <si>
     <t>QuikTraider3</t>
+  </si>
+  <si>
+    <t>TestTrader (RL2)</t>
+  </si>
+  <si>
+    <t>api_moex_loader (RL2)</t>
+  </si>
+  <si>
+    <t>TraderBase (RL2)</t>
+  </si>
+  <si>
+    <t>QuikTrader (RL2)</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1238,9 +1247,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1527,7 +1533,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AH3" sqref="AH3"/>
+      <selection pane="bottomLeft" activeCell="AI6" sqref="AI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,10 +1941,10 @@
         <v>329</v>
       </c>
       <c r="AG2" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="AH2" s="19" t="s">
         <v>341</v>
+      </c>
+      <c r="AH2" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="AK2" s="2" t="s">
         <v>316</v>
@@ -2017,8 +2023,8 @@
       <c r="AG3" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="AH3" s="2" t="s">
-        <v>328</v>
+      <c r="AH3" s="19" t="s">
+        <v>342</v>
       </c>
       <c r="AK3" s="2" t="s">
         <v>317</v>
@@ -2091,6 +2097,9 @@
       <c r="AG4" s="4" t="s">
         <v>331</v>
       </c>
+      <c r="AH4" s="19" t="s">
+        <v>345</v>
+      </c>
       <c r="AK4" s="2" t="s">
         <v>318</v>
       </c>
@@ -2150,6 +2159,9 @@
       <c r="T5" s="4" t="s">
         <v>286</v>
       </c>
+      <c r="AG5" s="4" t="s">
+        <v>344</v>
+      </c>
       <c r="AK5" s="2" t="s">
         <v>323</v>
       </c>
@@ -2516,7 +2528,9 @@
       <c r="AK11" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="AL11" s="20"/>
+      <c r="AL11" s="2" t="s">
+        <v>328</v>
+      </c>
       <c r="AM11" s="15" t="s">
         <v>254</v>
       </c>

--- a/_other/WeekPlan.xlsx
+++ b/_other/WeekPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\exchange\RichLaughter2\_other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1305AED4-6B81-4995-85AA-EAAEEF748E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F0065D-3857-4EDD-9229-F670E76C19BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="348">
   <si>
     <t>Новый тест с использованием БД</t>
   </si>
@@ -1074,6 +1074,12 @@
   </si>
   <si>
     <t>QuikTrader (RL2)</t>
+  </si>
+  <si>
+    <t>Изменить время закрытия в QT (RL1)</t>
+  </si>
+  <si>
+    <t>grid_ranger (RL2)</t>
   </si>
 </sst>
 </file>
@@ -1531,9 +1537,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DF51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI6" sqref="AI6"/>
+      <selection pane="bottomLeft" activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2162,6 +2168,9 @@
       <c r="AG5" s="4" t="s">
         <v>344</v>
       </c>
+      <c r="AH5" s="2" t="s">
+        <v>346</v>
+      </c>
       <c r="AK5" s="2" t="s">
         <v>323</v>
       </c>
@@ -2583,6 +2592,9 @@
       </c>
       <c r="T12" s="7" t="s">
         <v>289</v>
+      </c>
+      <c r="AL12" s="2" t="s">
+        <v>347</v>
       </c>
       <c r="AM12" s="16" t="s">
         <v>294</v>

--- a/_other/WeekPlan.xlsx
+++ b/_other/WeekPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\exchange\RichLaughter2\_other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B271C513-434A-4F5C-BE51-4EFBB25372B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CC54D2-C989-414D-9400-664DC29CA1F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="360">
   <si>
     <t>Новый тест с использованием БД</t>
   </si>
@@ -1084,6 +1084,45 @@
   <si>
     <t>Обработать time_mode == -2
 QT (RL1 и RL2)</t>
+  </si>
+  <si>
+    <t>LWS1_FIRSTGRID</t>
+  </si>
+  <si>
+    <t>LWS1_AUTOGRID</t>
+  </si>
+  <si>
+    <t>Парный противоположный грид. Один инструмент в шорт, другой в лонг. Сетки и размеры одинаковы. Если на одном инструменте 3 лонга, то на другом 3 шорта. Прибыль засчет хода внутри сетки. Если случается выход за сетку, то один инструмент будет компенсировать другой.</t>
+  </si>
+  <si>
+    <t>Парный Грид с переходом в хедж</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RSI-грид-хедж
+Инструмент A: [2, 2, 1, 0, 0, -1, -2, -2] 
+Инструмент B: [-2, -1, 0, 0, 1, 2, 2, 2] </t>
+  </si>
+  <si>
+    <t>(3,2,1,0,0,-1,-2,-3). А другого (0,-1,-2,-3,3,2,1)</t>
+  </si>
+  <si>
+    <t>Плавающий грид по DC</t>
+  </si>
+  <si>
+    <t>Процентная сетка от скользящей средней</t>
+  </si>
+  <si>
+    <t>обнуляющий парный грид.
+Лонг:  [0, 3, 2, 1, 0 ]
+Шорт: [0, -1, -2, -3, 0]</t>
+  </si>
+  <si>
+    <t>Пробойная парная стратегия по BB от центра. В центра открытие лонга и шорта. При выходе к верху закрытие шорта и удержание лонга и наоборот</t>
+  </si>
+  <si>
+    <t>Парный Грид по DC 
+Лонгующий = [0, 1, 2]
+Шортящий = [-2, -1, 0]</t>
   </si>
 </sst>
 </file>
@@ -1543,7 +1582,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI5" sqref="AI5"/>
+      <selection pane="bottomLeft" activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1956,6 +1995,9 @@
       <c r="AH2" s="4" t="s">
         <v>343</v>
       </c>
+      <c r="AJ2" s="2" t="s">
+        <v>357</v>
+      </c>
       <c r="AK2" s="2" t="s">
         <v>316</v>
       </c>
@@ -1978,7 +2020,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:110" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:110" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2035,6 +2077,9 @@
       </c>
       <c r="AH3" s="19" t="s">
         <v>342</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>358</v>
       </c>
       <c r="AK3" s="2" t="s">
         <v>317</v>
@@ -2110,6 +2155,9 @@
       <c r="AH4" s="19" t="s">
         <v>345</v>
       </c>
+      <c r="AJ4" s="2" t="s">
+        <v>359</v>
+      </c>
       <c r="AK4" s="2" t="s">
         <v>318</v>
       </c>
@@ -2172,7 +2220,7 @@
       <c r="AG5" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="AH5" s="2" t="s">
+      <c r="AH5" s="4" t="s">
         <v>346</v>
       </c>
       <c r="AK5" s="2" t="s">
@@ -2240,7 +2288,10 @@
       <c r="AA6" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="AH6" s="2" t="s">
+      <c r="AG6" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="AH6" s="4" t="s">
         <v>348</v>
       </c>
       <c r="AK6" s="2" t="s">
@@ -2305,8 +2356,14 @@
       <c r="T7" s="4" t="s">
         <v>244</v>
       </c>
+      <c r="AG7" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="AH7" s="4" t="s">
+        <v>349</v>
+      </c>
       <c r="AK7" s="17" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="AL7" s="2" t="s">
         <v>310</v>
@@ -2364,8 +2421,11 @@
       <c r="T8" s="4" t="s">
         <v>283</v>
       </c>
+      <c r="AH8" s="4" t="s">
+        <v>350</v>
+      </c>
       <c r="AK8" s="17" t="s">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="AL8" s="2" t="s">
         <v>311</v>
@@ -2563,7 +2623,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:110" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:110" ht="165" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2599,6 +2659,9 @@
       </c>
       <c r="T12" s="7" t="s">
         <v>289</v>
+      </c>
+      <c r="AK12" s="17" t="s">
+        <v>351</v>
       </c>
       <c r="AL12" s="2" t="s">
         <v>347</v>
@@ -2653,6 +2716,9 @@
       <c r="T13" s="7" t="s">
         <v>290</v>
       </c>
+      <c r="AK13" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="AM13" s="15" t="s">
         <v>258</v>
       </c>
@@ -2666,7 +2732,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="14" spans="1:110" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:110" ht="75" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2702,6 +2768,9 @@
       </c>
       <c r="T14" s="4" t="s">
         <v>291</v>
+      </c>
+      <c r="AK14" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="AM14" s="15" t="s">
         <v>268</v>
@@ -2749,6 +2818,9 @@
       </c>
       <c r="T15" s="7" t="s">
         <v>292</v>
+      </c>
+      <c r="AK15" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="AM15" s="13" t="s">
         <v>281</v>

--- a/_other/WeekPlan.xlsx
+++ b/_other/WeekPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dev\exchange\RichLaughter2\_other\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CCF223-6737-4D92-9CCB-7AC8C0E5B7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7F7F37-8CE4-4369-810D-637F2A0BCB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="369">
   <si>
     <t>Новый тест с использованием БД</t>
   </si>
@@ -1147,6 +1147,9 @@
   </si>
   <si>
     <t>ST_mini парный (RL2)</t>
+  </si>
+  <si>
+    <t>Парный полу ST_mini полу LTA_KROSH. Один торгует лонг, другой шорт. Только взависимости от RSI &gt; 50 меняют стратегии</t>
   </si>
 </sst>
 </file>
@@ -1614,8 +1617,8 @@
   <dimension ref="A1:DF51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK9" sqref="AK9"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ5" sqref="AJ5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2200,8 +2203,11 @@
       <c r="AH4" s="19" t="s">
         <v>345</v>
       </c>
+      <c r="AI4" s="4" t="s">
+        <v>359</v>
+      </c>
       <c r="AL4" s="2" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="AM4" s="2" t="s">
         <v>318</v>
@@ -2268,6 +2274,9 @@
       <c r="AH5" s="4" t="s">
         <v>346</v>
       </c>
+      <c r="AL5" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="AM5" s="2" t="s">
         <v>323</v>
       </c>
@@ -2290,7 +2299,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:110" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:110" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2338,6 +2347,9 @@
       </c>
       <c r="AH6" s="4" t="s">
         <v>348</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>353</v>
       </c>
       <c r="AM6" s="2" t="s">
         <v>320</v>
@@ -2407,6 +2419,9 @@
       <c r="AH7" s="4" t="s">
         <v>349</v>
       </c>
+      <c r="AL7" s="2" t="s">
+        <v>354</v>
+      </c>
       <c r="AM7" s="2" t="s">
         <v>367</v>
       </c>
@@ -2773,9 +2788,6 @@
       <c r="T13" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="AM13" s="2" t="s">
-        <v>352</v>
-      </c>
       <c r="AO13" s="15" t="s">
         <v>258</v>
       </c>
@@ -2789,7 +2801,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="14" spans="1:110" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:110" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2825,9 +2837,6 @@
       </c>
       <c r="T14" s="4" t="s">
         <v>291</v>
-      </c>
-      <c r="AM14" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="AO14" s="15" t="s">
         <v>268</v>
@@ -2875,9 +2884,6 @@
       </c>
       <c r="T15" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="AM15" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="AO15" s="13" t="s">
         <v>281</v>
